--- a/src/repository/log.xlsx
+++ b/src/repository/log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="113">
   <si>
     <t>Email</t>
   </si>
@@ -56,6 +56,300 @@
   </si>
   <si>
     <t>2025-11-11T19:01:25.287Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T17:46:53.324Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T17:47:24.986Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T17:47:56.657Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T22:26:13.483Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T22:26:45.139Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T22:30:44.928Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T22:34:10.159Z</t>
+  </si>
+  <si>
+    <t>sophiafreitas2121@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:36:30.245Z</t>
+  </si>
+  <si>
+    <t>lincolneberty@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:40:26.781Z</t>
+  </si>
+  <si>
+    <t>sophialencarvalho@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:40:49.361Z</t>
+  </si>
+  <si>
+    <t>fpigor30@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:43:27.651Z</t>
+  </si>
+  <si>
+    <t>bostonosophia@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:44:14.023Z</t>
+  </si>
+  <si>
+    <t>felipepfonseca0@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:44:41.063Z</t>
+  </si>
+  <si>
+    <t>taianagonzaga7274@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:46:49.136Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:57:00.057Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:57:01.644Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:57:03.230Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:57:04.777Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:57:06.326Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:57:07.884Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:57:09.424Z</t>
+  </si>
+  <si>
+    <t>luizalencarvalho@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:58:19.770Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:58:21.342Z</t>
+  </si>
+  <si>
+    <t>2025-11-12T23:58:22.920Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:02:22.505Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:02:25.685Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:02:28.135Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:02:30.504Z</t>
+  </si>
+  <si>
+    <t>pedrobarichello5@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:04:36.264Z</t>
+  </si>
+  <si>
+    <t>cenides.pimenta87@hotmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:05:08.103Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:07:21.271Z</t>
+  </si>
+  <si>
+    <t>sooh777@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:10:08.724Z</t>
+  </si>
+  <si>
+    <t>alemdosmurosdasescolas@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:11:05.306Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T00:11:53.724Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T19:56:22.912Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T19:56:26.201Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T19:56:29.230Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T19:56:32.329Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:01:11.979Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:01:57.298Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:01:58.857Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:00.427Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:01.996Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:03.561Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:05.142Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:06.707Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:08.256Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:09.796Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:11.350Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:12.886Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:14.430Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:15.978Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:17.527Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:19.063Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:20.619Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:22.160Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:26.404Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:27.953Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:29.579Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:32.720Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:34.280Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:35.824Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:41.664Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:45.202Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:48.520Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:50.085Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:02:51.637Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:04:49.337Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:06:26.524Z</t>
+  </si>
+  <si>
+    <t>fuciolos@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:08:15.691Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:13:16.406Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:16:44.347Z</t>
+  </si>
+  <si>
+    <t>joaovitorjj2912@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:20:07.518Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:20:54.548Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:21:12.041Z</t>
+  </si>
+  <si>
+    <t>pedrinhobaladeiro35@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:22:47.222Z</t>
+  </si>
+  <si>
+    <t>gabrieljordão828@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:23:06.330Z</t>
+  </si>
+  <si>
+    <t>sophifucii@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:23:34.478Z</t>
+  </si>
+  <si>
+    <t>juliamatt1107@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:24:19.677Z</t>
+  </si>
+  <si>
+    <t>2025-11-13T20:25:41.096Z</t>
   </si>
 </sst>
 </file>
@@ -432,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C87"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,6 +806,886 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>107</v>
+      </c>
+      <c r="C84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
